--- a/Code/Results/Cases/Case_9_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.389072737441779</v>
+        <v>3.395204311768452</v>
       </c>
       <c r="C2">
-        <v>0.5548044988597383</v>
+        <v>0.6427199350709145</v>
       </c>
       <c r="D2">
-        <v>0.03390571748128401</v>
+        <v>0.03733983179330025</v>
       </c>
       <c r="E2">
-        <v>0.06021229264461425</v>
+        <v>0.0532985884826962</v>
       </c>
       <c r="F2">
-        <v>1.151046326872304</v>
+        <v>0.9297447406185313</v>
       </c>
       <c r="G2">
-        <v>1.113846826987626</v>
+        <v>0.8398341727905176</v>
       </c>
       <c r="H2">
-        <v>0.0005310661498072466</v>
+        <v>0.0002981021314165666</v>
       </c>
       <c r="I2">
-        <v>0.001445813154034692</v>
+        <v>0.001037350374302193</v>
       </c>
       <c r="J2">
-        <v>0.7026261440671817</v>
+        <v>0.6114861007388299</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2459010569094993</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1576676890807747</v>
       </c>
       <c r="N2">
-        <v>0.340970101140968</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3593379733479622</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.951091481172739</v>
+        <v>2.957407523969266</v>
       </c>
       <c r="C3">
-        <v>0.49550268393034</v>
+        <v>0.5647675545989443</v>
       </c>
       <c r="D3">
-        <v>0.03331205057795295</v>
+        <v>0.0353952395590369</v>
       </c>
       <c r="E3">
-        <v>0.05545914219236714</v>
+        <v>0.04986716669698055</v>
       </c>
       <c r="F3">
-        <v>1.051992247524296</v>
+        <v>0.8623861774317163</v>
       </c>
       <c r="G3">
-        <v>1.016923017901334</v>
+        <v>0.7803344236133398</v>
       </c>
       <c r="H3">
-        <v>0.001646147087377647</v>
+        <v>0.001087947931215139</v>
       </c>
       <c r="I3">
-        <v>0.003032940795010486</v>
+        <v>0.002040936199208865</v>
       </c>
       <c r="J3">
-        <v>0.6621584894897552</v>
+        <v>0.58434840759179</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2478111938593166</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1492194141056657</v>
       </c>
       <c r="N3">
-        <v>0.297963239857026</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3144302951028664</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.682384196827456</v>
+        <v>2.688481469215162</v>
       </c>
       <c r="C4">
-        <v>0.4593960880455938</v>
+        <v>0.5174314491194423</v>
       </c>
       <c r="D4">
-        <v>0.03293195708220509</v>
+        <v>0.03421335900383937</v>
       </c>
       <c r="E4">
-        <v>0.05252311475918425</v>
+        <v>0.04773422598262744</v>
       </c>
       <c r="F4">
-        <v>0.9917933810626209</v>
+        <v>0.8213300384356756</v>
       </c>
       <c r="G4">
-        <v>0.9579031795572064</v>
+        <v>0.7442161015256943</v>
       </c>
       <c r="H4">
-        <v>0.00267087668277699</v>
+        <v>0.001845105017190929</v>
       </c>
       <c r="I4">
-        <v>0.004456334000371154</v>
+        <v>0.003001391215283533</v>
       </c>
       <c r="J4">
-        <v>0.6376430106219573</v>
+        <v>0.5675823190453571</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2488006652179386</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1447648813834341</v>
       </c>
       <c r="N4">
-        <v>0.2716676590350176</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2869561034986532</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.572890727920822</v>
+        <v>2.578821943707965</v>
       </c>
       <c r="C5">
-        <v>0.4456053169523102</v>
+        <v>0.4991297260044689</v>
       </c>
       <c r="D5">
-        <v>0.03279895127439225</v>
+        <v>0.03378319900422966</v>
       </c>
       <c r="E5">
-        <v>0.0512591386394039</v>
+        <v>0.04681218559763511</v>
       </c>
       <c r="F5">
-        <v>0.9654229122571252</v>
+        <v>0.8031251325714734</v>
       </c>
       <c r="G5">
-        <v>0.9316892445749261</v>
+        <v>0.7278699242010163</v>
       </c>
       <c r="H5">
-        <v>0.003172452851315288</v>
+        <v>0.002220759119292093</v>
       </c>
       <c r="I5">
-        <v>0.005222452963816071</v>
+        <v>0.003564873776697119</v>
       </c>
       <c r="J5">
-        <v>0.6265665350196628</v>
+        <v>0.5598110539763042</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.248641770995782</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.142772269170873</v>
       </c>
       <c r="N5">
-        <v>0.2610914333298524</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2758828702223894</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.554691647357458</v>
+        <v>2.560588815331641</v>
       </c>
       <c r="C6">
-        <v>0.4443716079893818</v>
+        <v>0.4971620472302902</v>
       </c>
       <c r="D6">
-        <v>0.03280888472081323</v>
+        <v>0.03377206391685306</v>
       </c>
       <c r="E6">
-        <v>0.05097370395860867</v>
+        <v>0.04660341564796688</v>
       </c>
       <c r="F6">
-        <v>0.9586400932598309</v>
+        <v>0.7982305473231932</v>
       </c>
       <c r="G6">
-        <v>0.9245749910142678</v>
+        <v>0.723068359952677</v>
       </c>
       <c r="H6">
-        <v>0.003264514122731432</v>
+        <v>0.002289918666463886</v>
       </c>
       <c r="I6">
-        <v>0.005460589517777947</v>
+        <v>0.003782490217092871</v>
       </c>
       <c r="J6">
-        <v>0.623314524769313</v>
+        <v>0.5574081988421824</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2479847279310086</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1420155138276549</v>
       </c>
       <c r="N6">
-        <v>0.2594798636823583</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2741706345488666</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.680852160661004</v>
+        <v>2.686913926588431</v>
       </c>
       <c r="C7">
-        <v>0.4620923290279109</v>
+        <v>0.5196483795313043</v>
       </c>
       <c r="D7">
-        <v>0.03301885337102206</v>
+        <v>0.03447501957951005</v>
       </c>
       <c r="E7">
-        <v>0.05230032624269221</v>
+        <v>0.04756407029526777</v>
       </c>
       <c r="F7">
-        <v>0.984838832913681</v>
+        <v>0.8130838164474028</v>
       </c>
       <c r="G7">
-        <v>0.9499762392105424</v>
+        <v>0.7409504364033666</v>
       </c>
       <c r="H7">
-        <v>0.002687016814024723</v>
+        <v>0.001860979080957392</v>
       </c>
       <c r="I7">
-        <v>0.004733728065859033</v>
+        <v>0.003320115065578833</v>
       </c>
       <c r="J7">
-        <v>0.6336192797601825</v>
+        <v>0.5565708376329752</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2463800233140319</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1429853487484536</v>
       </c>
       <c r="N7">
-        <v>0.2719176792085278</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2870905730176503</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.2378930669542</v>
+        <v>3.244044990845168</v>
       </c>
       <c r="C8">
-        <v>0.5381467360400904</v>
+        <v>0.6181289218775987</v>
       </c>
       <c r="D8">
-        <v>0.0338268294440951</v>
+        <v>0.03725650500848587</v>
       </c>
       <c r="E8">
-        <v>0.05830207336472881</v>
+        <v>0.05190135398704854</v>
       </c>
       <c r="F8">
-        <v>1.107981110978002</v>
+        <v>0.8901787489356821</v>
       </c>
       <c r="G8">
-        <v>1.070243387831766</v>
+        <v>0.8206490151643777</v>
       </c>
       <c r="H8">
-        <v>0.0008488717692507475</v>
+        <v>0.0005228033079449634</v>
       </c>
       <c r="I8">
-        <v>0.002206857054545708</v>
+        <v>0.001680509659706786</v>
       </c>
       <c r="J8">
-        <v>0.6834629146913045</v>
+        <v>0.5723441171793553</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2422584552803002</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1510086005811075</v>
       </c>
       <c r="N8">
-        <v>0.3266395629200929</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.344089597487141</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.33372650427026</v>
+        <v>4.337103238701332</v>
       </c>
       <c r="C9">
-        <v>0.6850064722060552</v>
+        <v>0.8122890017532711</v>
       </c>
       <c r="D9">
-        <v>0.03511994560962606</v>
+        <v>0.04212354035450616</v>
       </c>
       <c r="E9">
-        <v>0.07037752156581867</v>
+        <v>0.06054310056684731</v>
       </c>
       <c r="F9">
-        <v>1.367318923750943</v>
+        <v>1.064050085414195</v>
       </c>
       <c r="G9">
-        <v>1.324680663779816</v>
+        <v>0.9816084311965625</v>
       </c>
       <c r="H9">
-        <v>0.0001661584352929957</v>
+        <v>0.0002171379214097602</v>
       </c>
       <c r="I9">
-        <v>0.0007360203697190926</v>
+        <v>0.0009476435517541404</v>
       </c>
       <c r="J9">
-        <v>0.79126780842779</v>
+        <v>0.6360465478886823</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2381653371443981</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.177031972711525</v>
       </c>
       <c r="N9">
-        <v>0.4343827628101025</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4564653938697916</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.142556096070905</v>
+        <v>5.141270247352054</v>
       </c>
       <c r="C10">
-        <v>0.808094498536434</v>
+        <v>0.9671435694549757</v>
       </c>
       <c r="D10">
-        <v>0.03660763186198324</v>
+        <v>0.04759764672923339</v>
       </c>
       <c r="E10">
-        <v>0.0761950966446534</v>
+        <v>0.06457848609702133</v>
       </c>
       <c r="F10">
-        <v>1.527379348797623</v>
+        <v>1.153684322133699</v>
       </c>
       <c r="G10">
-        <v>1.475243229418766</v>
+        <v>1.092099874742573</v>
       </c>
       <c r="H10">
-        <v>0.001853681414186514</v>
+        <v>0.001739085399194984</v>
       </c>
       <c r="I10">
-        <v>0.002537319265369931</v>
+        <v>0.002625909574161867</v>
       </c>
       <c r="J10">
-        <v>0.8523951500821738</v>
+        <v>0.6255193595605846</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2251116923113194</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.189753505625383</v>
       </c>
       <c r="N10">
-        <v>0.4953097763029461</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5193736631789818</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.505241678288144</v>
+        <v>5.502018130683041</v>
       </c>
       <c r="C11">
-        <v>0.9759477685243212</v>
+        <v>1.129155191518549</v>
       </c>
       <c r="D11">
-        <v>0.04509427009295663</v>
+        <v>0.06295925020504711</v>
       </c>
       <c r="E11">
-        <v>0.06107919072611923</v>
+        <v>0.05494159256659259</v>
       </c>
       <c r="F11">
-        <v>1.320252160445946</v>
+        <v>0.9773978037780608</v>
       </c>
       <c r="G11">
-        <v>1.225666203190571</v>
+        <v>0.9511979829453594</v>
       </c>
       <c r="H11">
-        <v>0.02057267729053791</v>
+        <v>0.02036942669085917</v>
       </c>
       <c r="I11">
-        <v>0.00385889715863641</v>
+        <v>0.003893180942068142</v>
       </c>
       <c r="J11">
-        <v>0.7193251623035053</v>
+        <v>0.4584285488671611</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1724487764406213</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1405717406791638</v>
       </c>
       <c r="N11">
-        <v>0.3673056259095944</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3845451640009401</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.640505865602563</v>
+        <v>5.636896348116636</v>
       </c>
       <c r="C12">
-        <v>1.098660091000113</v>
+        <v>1.236862770208575</v>
       </c>
       <c r="D12">
-        <v>0.05517673721850969</v>
+        <v>0.07669428669583311</v>
       </c>
       <c r="E12">
-        <v>0.05901516310372434</v>
+        <v>0.05657763494470203</v>
       </c>
       <c r="F12">
-        <v>1.133984860277096</v>
+        <v>0.8368889437261515</v>
       </c>
       <c r="G12">
-        <v>1.013392068084684</v>
+        <v>0.8161398061328526</v>
       </c>
       <c r="H12">
-        <v>0.05910001487923466</v>
+        <v>0.05889217665132662</v>
       </c>
       <c r="I12">
-        <v>0.004034538992441661</v>
+        <v>0.004033000492089656</v>
       </c>
       <c r="J12">
-        <v>0.608821996977511</v>
+        <v>0.3643281117481791</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1410368884919606</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1058675342925035</v>
       </c>
       <c r="N12">
-        <v>0.2634260800203094</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.275610272504295</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.606865818927872</v>
+        <v>5.604268401686056</v>
       </c>
       <c r="C13">
-        <v>1.196788448439008</v>
+        <v>1.31397952847442</v>
       </c>
       <c r="D13">
-        <v>0.06702244611394548</v>
+        <v>0.08885684740651101</v>
       </c>
       <c r="E13">
-        <v>0.06631602925612512</v>
+        <v>0.06656805189754955</v>
       </c>
       <c r="F13">
-        <v>0.942896760858801</v>
+        <v>0.7107586362973706</v>
       </c>
       <c r="G13">
-        <v>0.8059827832766047</v>
+        <v>0.6650224808746827</v>
       </c>
       <c r="H13">
-        <v>0.1144464766965001</v>
+        <v>0.114302252668935</v>
       </c>
       <c r="I13">
-        <v>0.003597984200621518</v>
+        <v>0.00367989858244222</v>
       </c>
       <c r="J13">
-        <v>0.5032894431848689</v>
+        <v>0.3153786699700163</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1201903323367528</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.07869659465725576</v>
       </c>
       <c r="N13">
-        <v>0.1733886228725439</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1815291192961368</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.506898137833502</v>
+        <v>5.505549855696302</v>
       </c>
       <c r="C14">
-        <v>1.256191941901136</v>
+        <v>1.355513331334009</v>
       </c>
       <c r="D14">
-        <v>0.07653315853131204</v>
+        <v>0.09668339918219004</v>
       </c>
       <c r="E14">
-        <v>0.07709210121376486</v>
+        <v>0.07862222759130333</v>
       </c>
       <c r="F14">
-        <v>0.8082637338331153</v>
+        <v>0.6274445365330621</v>
       </c>
       <c r="G14">
-        <v>0.665091560617654</v>
+        <v>0.5550100380024503</v>
       </c>
       <c r="H14">
-        <v>0.1634407220176826</v>
+        <v>0.1633577748296631</v>
       </c>
       <c r="I14">
-        <v>0.003144177778016122</v>
+        <v>0.003334877851439266</v>
       </c>
       <c r="J14">
-        <v>0.4325794948560713</v>
+        <v>0.2960434043128899</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1096335409237899</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.06322962143713617</v>
       </c>
       <c r="N14">
-        <v>0.119695468898513</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1255115991185605</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.446488353576456</v>
+        <v>5.445717875379898</v>
       </c>
       <c r="C15">
-        <v>1.265309249274594</v>
+        <v>1.359468019448798</v>
       </c>
       <c r="D15">
-        <v>0.07892148726312342</v>
+        <v>0.09800769928654063</v>
       </c>
       <c r="E15">
-        <v>0.08021612597892869</v>
+        <v>0.081998803684872</v>
       </c>
       <c r="F15">
-        <v>0.77134999665995</v>
+        <v>0.6067323608796826</v>
       </c>
       <c r="G15">
-        <v>0.6278345805062173</v>
+        <v>0.5234810059310746</v>
       </c>
       <c r="H15">
-        <v>0.1757964895105601</v>
+        <v>0.1757383601622564</v>
       </c>
       <c r="I15">
-        <v>0.003032463836290411</v>
+        <v>0.003288888461344897</v>
       </c>
       <c r="J15">
-        <v>0.4144364550503923</v>
+        <v>0.2962651512791652</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1078631946878819</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05998070042366876</v>
       </c>
       <c r="N15">
-        <v>0.1074984720730967</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1128275133697514</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.103465364942906</v>
+        <v>5.105184247514899</v>
       </c>
       <c r="C16">
-        <v>1.190204624535625</v>
+        <v>1.280218456578723</v>
       </c>
       <c r="D16">
-        <v>0.07552802144903126</v>
+        <v>0.08999420412115455</v>
       </c>
       <c r="E16">
-        <v>0.07598209793733091</v>
+        <v>0.07797180732372411</v>
       </c>
       <c r="F16">
-        <v>0.7412401702366509</v>
+        <v>0.6092538254984845</v>
       </c>
       <c r="G16">
-        <v>0.6053838366102866</v>
+        <v>0.4877830602558362</v>
       </c>
       <c r="H16">
-        <v>0.1623739566222753</v>
+        <v>0.1623935826066401</v>
       </c>
       <c r="I16">
-        <v>0.002240382203011926</v>
+        <v>0.002648718042427944</v>
       </c>
       <c r="J16">
-        <v>0.409192470751492</v>
+        <v>0.3452156010282152</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.11511399223353</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0639036603332741</v>
       </c>
       <c r="N16">
-        <v>0.1030128380508231</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1086626512130806</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.894296079027868</v>
+        <v>4.897116408405225</v>
       </c>
       <c r="C17">
-        <v>1.10104472279744</v>
+        <v>1.196669572941062</v>
       </c>
       <c r="D17">
-        <v>0.06767522692292971</v>
+        <v>0.08040370812869924</v>
       </c>
       <c r="E17">
-        <v>0.06602271952388605</v>
+        <v>0.06755205302304823</v>
       </c>
       <c r="F17">
-        <v>0.7877470996767357</v>
+        <v>0.6530993452526488</v>
       </c>
       <c r="G17">
-        <v>0.6603466245007468</v>
+        <v>0.518841540398526</v>
       </c>
       <c r="H17">
-        <v>0.1243027324189256</v>
+        <v>0.1243340892820299</v>
       </c>
       <c r="I17">
-        <v>0.001969002577269841</v>
+        <v>0.002414391626460066</v>
       </c>
       <c r="J17">
-        <v>0.4415381850970874</v>
+        <v>0.3920465665610919</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1270054070902766</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.07440868270289513</v>
       </c>
       <c r="N17">
-        <v>0.1259430719223857</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1329953927343936</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.775684489575553</v>
+        <v>4.778797610370589</v>
       </c>
       <c r="C18">
-        <v>0.9911803129249677</v>
+        <v>1.100823897086201</v>
       </c>
       <c r="D18">
-        <v>0.05634238203585085</v>
+        <v>0.06846770049421735</v>
       </c>
       <c r="E18">
-        <v>0.05547885750870574</v>
+        <v>0.05542519831634696</v>
       </c>
       <c r="F18">
-        <v>0.9161549976572161</v>
+        <v>0.7497297131121172</v>
       </c>
       <c r="G18">
-        <v>0.8023088267514851</v>
+        <v>0.6149089598465878</v>
       </c>
       <c r="H18">
-        <v>0.07142640444294557</v>
+        <v>0.07145897515194122</v>
       </c>
       <c r="I18">
-        <v>0.001664447088633558</v>
+        <v>0.002064296850480929</v>
       </c>
       <c r="J18">
-        <v>0.5168443184543747</v>
+        <v>0.4561892055956491</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.148149578441231</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09537485005404278</v>
       </c>
       <c r="N18">
-        <v>0.1838807212145994</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1939234767515217</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.738081902513898</v>
+        <v>4.740841752352196</v>
       </c>
       <c r="C19">
-        <v>0.8870174640169068</v>
+        <v>1.013509173002205</v>
       </c>
       <c r="D19">
-        <v>0.04594613947651638</v>
+        <v>0.05735991686088937</v>
       </c>
       <c r="E19">
-        <v>0.05352185475409477</v>
+        <v>0.05027387110660575</v>
       </c>
       <c r="F19">
-        <v>1.102493909550361</v>
+        <v>0.8825897311320858</v>
       </c>
       <c r="G19">
-        <v>1.009220685928</v>
+        <v>0.7561550758735649</v>
       </c>
       <c r="H19">
-        <v>0.02635008245398751</v>
+        <v>0.02638773470489753</v>
       </c>
       <c r="I19">
-        <v>0.001838790888691655</v>
+        <v>0.002258053901078583</v>
       </c>
       <c r="J19">
-        <v>0.6233787361679504</v>
+        <v>0.5336692655371564</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1772568980979443</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1255911189990861</v>
       </c>
       <c r="N19">
-        <v>0.2802718356811482</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2949300574158684</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.929369368961147</v>
+        <v>4.929754260990023</v>
       </c>
       <c r="C20">
-        <v>0.7854781130748449</v>
+        <v>0.9380756521616433</v>
       </c>
       <c r="D20">
-        <v>0.03659497211990725</v>
+        <v>0.04638885551703709</v>
       </c>
       <c r="E20">
-        <v>0.07389589490314741</v>
+        <v>0.06300186964631393</v>
       </c>
       <c r="F20">
-        <v>1.46294188268061</v>
+        <v>1.123656988084676</v>
       </c>
       <c r="G20">
-        <v>1.410120996604547</v>
+        <v>1.034397352290341</v>
       </c>
       <c r="H20">
-        <v>0.001224215684695995</v>
+        <v>0.001197671915828202</v>
       </c>
       <c r="I20">
-        <v>0.002585206422986985</v>
+        <v>0.002934537976345908</v>
       </c>
       <c r="J20">
-        <v>0.8233463041840707</v>
+        <v>0.6456578314839589</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2262865851566644</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1838213123726824</v>
       </c>
       <c r="N20">
-        <v>0.4796783567802549</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5032685846602334</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.553377931955993</v>
+        <v>5.547896071295327</v>
       </c>
       <c r="C21">
-        <v>0.8618182996790438</v>
+        <v>1.032089231719937</v>
       </c>
       <c r="D21">
-        <v>0.03676350536116502</v>
+        <v>0.05153647387869142</v>
       </c>
       <c r="E21">
-        <v>0.08320725848396471</v>
+        <v>0.06952844459452123</v>
       </c>
       <c r="F21">
-        <v>1.642273350644331</v>
+        <v>1.177909525883891</v>
       </c>
       <c r="G21">
-        <v>1.589956632101206</v>
+        <v>1.217306585009709</v>
       </c>
       <c r="H21">
-        <v>0.003199494524811275</v>
+        <v>0.002795625489939613</v>
       </c>
       <c r="I21">
-        <v>0.004900232367317514</v>
+        <v>0.004762037665642538</v>
       </c>
       <c r="J21">
-        <v>0.9028342570095447</v>
+        <v>0.5274859217587533</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2153240850025036</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1928274083861368</v>
       </c>
       <c r="N21">
-        <v>0.5568215288115823</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5820579495410811</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.962725902534771</v>
+        <v>5.952624576424853</v>
       </c>
       <c r="C22">
-        <v>0.9142166238888763</v>
+        <v>1.094589522963759</v>
       </c>
       <c r="D22">
-        <v>0.03701570264101051</v>
+        <v>0.05555819268087703</v>
       </c>
       <c r="E22">
-        <v>0.08809384865471515</v>
+        <v>0.07292632990042414</v>
       </c>
       <c r="F22">
-        <v>1.753264714408473</v>
+        <v>1.204896355809169</v>
       </c>
       <c r="G22">
-        <v>1.700053363541997</v>
+        <v>1.339875513424943</v>
       </c>
       <c r="H22">
-        <v>0.005031148464492041</v>
+        <v>0.004243544625127438</v>
       </c>
       <c r="I22">
-        <v>0.006783980997455252</v>
+        <v>0.006046159672950857</v>
       </c>
       <c r="J22">
-        <v>0.9510573932548141</v>
+        <v>0.4490918324342914</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2066216654754811</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1970514759803024</v>
       </c>
       <c r="N22">
-        <v>0.5971072548278045</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6228642985714572</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.744244536678593</v>
+        <v>5.736793611530118</v>
       </c>
       <c r="C23">
-        <v>0.8825973128143119</v>
+        <v>1.058722431642224</v>
       </c>
       <c r="D23">
-        <v>0.036753551180567</v>
+        <v>0.05272747083646578</v>
       </c>
       <c r="E23">
-        <v>0.08573013987104794</v>
+        <v>0.07128352377712943</v>
       </c>
       <c r="F23">
-        <v>1.701770286308118</v>
+        <v>1.203492055534838</v>
       </c>
       <c r="G23">
-        <v>1.650215056939146</v>
+        <v>1.273088200538325</v>
       </c>
       <c r="H23">
-        <v>0.004015960759845116</v>
+        <v>0.003453194474046239</v>
       </c>
       <c r="I23">
-        <v>0.005446199583311717</v>
+        <v>0.004993198174433111</v>
       </c>
       <c r="J23">
-        <v>0.9298337716258516</v>
+        <v>0.5087478686539839</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2139655455702929</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1980643151645793</v>
       </c>
       <c r="N23">
-        <v>0.575092496368967</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6008041223664691</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.920000118319535</v>
+        <v>4.920315723213378</v>
       </c>
       <c r="C24">
-        <v>0.7699123103481043</v>
+        <v>0.9230596552974077</v>
       </c>
       <c r="D24">
-        <v>0.03593294435110295</v>
+        <v>0.04517686435115564</v>
       </c>
       <c r="E24">
-        <v>0.07649655700732083</v>
+        <v>0.06488338180814779</v>
       </c>
       <c r="F24">
-        <v>1.497588474564012</v>
+        <v>1.148776331514483</v>
       </c>
       <c r="G24">
-        <v>1.45026822279209</v>
+        <v>1.061826796045224</v>
       </c>
       <c r="H24">
-        <v>0.001167408107025869</v>
+        <v>0.001136721402695384</v>
       </c>
       <c r="I24">
-        <v>0.002134827692869656</v>
+        <v>0.002379074089956745</v>
       </c>
       <c r="J24">
-        <v>0.8438445614908119</v>
+        <v>0.661273622322426</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2329775940518175</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1907803331824809</v>
       </c>
       <c r="N24">
-        <v>0.4931410695305516</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5174821118320523</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.036486634801122</v>
+        <v>4.041081732102668</v>
       </c>
       <c r="C25">
-        <v>0.6502518804383612</v>
+        <v>0.7653722348786687</v>
       </c>
       <c r="D25">
-        <v>0.03496441646070991</v>
+        <v>0.04098270856167119</v>
       </c>
       <c r="E25">
-        <v>0.06672988945597602</v>
+        <v>0.05795806658880132</v>
       </c>
       <c r="F25">
-        <v>1.284340746051157</v>
+        <v>1.011553324631038</v>
       </c>
       <c r="G25">
-        <v>1.241357135536134</v>
+        <v>0.9233892978815845</v>
       </c>
       <c r="H25">
-        <v>2.692114138724833E-06</v>
+        <v>2.250952068982848E-05</v>
       </c>
       <c r="I25">
-        <v>0.001092075144215165</v>
+        <v>0.001296496729690233</v>
       </c>
       <c r="J25">
-        <v>0.7546824513316039</v>
+        <v>0.6246150432301363</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.237766633258552</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1677111458576519</v>
       </c>
       <c r="N25">
-        <v>0.4057986962948235</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4266479000507246</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
